--- a/biology/Zoologie/Atlides_bacis/Atlides_bacis.xlsx
+++ b/biology/Zoologie/Atlides_bacis/Atlides_bacis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides bacis est une espèce de papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides bacis a été décrit par Frederick DuCane Godman et Osbert Salvin en 1887 sous le nom de Thecla bacis.
-Synonymes : Thecla melidor Druce, 1909[1].
-Noms vernaculaires
-Atlides bacis se nomme Bacis Hairstreak en anglais[2].
+Synonymes : Thecla melidor Druce, 1909.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides bacis est un petit papillon au corps bleu-vert sur le dessus avec deux fines queues à chaque aile postérieure. Le dessus est de couleur marron avec une plage plus ou moins étendue de bleu turquoise à partir de la base. Le revers est beige avec une tache rouge basale aux ailes antérieures et aux ailes postérieures une bordure costale rouge, une tache et une courte bande rouge.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides bacis se nomme Bacis Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides bacis est un petit papillon au corps bleu-vert sur le dessus avec deux fines queues à chaque aile postérieure. Le dessus est de couleur marron avec une plage plus ou moins étendue de bleu turquoise à partir de la base. Le revers est beige avec une tache rouge basale aux ailes antérieures et aux ailes postérieures une bordure costale rouge, une tache et une courte bande rouge.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +627,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside au Panama, au Costa Rica, en Colombie, au Pérou, au Brésil et en Guyane[1],[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Panama, au Costa Rica, en Colombie, au Pérou, au Brésil et en Guyane.
 Sur les autres projets Wikimedia :
 Atlides bacis, sur Wikimedia CommonsAtlides bacis, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlides_bacis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_bacis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
